--- a/const/items.xlsx
+++ b/const/items.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12555" yWindow="1455" windowWidth="21720" windowHeight="13620" activeTab="3"/>
+    <workbookView xWindow="12555" yWindow="1455" windowWidth="19320" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="4" r:id="rId1"/>
     <sheet name="dino_egg" sheetId="3" r:id="rId2"/>
     <sheet name="food" sheetId="1" r:id="rId3"/>
     <sheet name="scroll" sheetId="2" r:id="rId4"/>
+    <sheet name="vip" sheetId="5" r:id="rId5"/>
+    <sheet name="protection" sheetId="6" r:id="rId6"/>
+    <sheet name="ticket" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>fish</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +79,202 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>物品类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐龙蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特产食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScrollName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Describtion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Power I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻微提高队伍伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Speed I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻微提高队伍速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Prtection I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻微减少受到伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Life I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻微提高队伍生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Luckness I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻微提高技能触发率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Power II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少量提高队伍伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Speed II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少量提高队伍速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Prtection II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少量减少受到伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Life II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少量提高队伍生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Luckness II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少量提高技能触发率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Power III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大幅提高队伍伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Speed III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大幅提高队伍速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Prtection III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大幅减少受到伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Life III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大幅提高队伍生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Luckness III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大幅提高技能触发率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Wisdom I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻微提高经验获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Wisdom II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Wisdom III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少量提高经验获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大幅提高经验获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>窃蛋龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,10 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>腕龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三角龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,10 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重爪龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>肯龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,26 +299,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高棘龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装甲龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>戟龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剑龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食肉牛龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>震龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,203 +311,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物品类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恐龙蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特产食物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScrollName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Describtion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll of Power I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻微提高队伍伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll of Speed I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻微提高队伍速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll of Prtection I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻微减少受到伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll of Life I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻微提高队伍生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll of Luckness I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻微提高技能触发率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll of Treasure I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻微提高物品掉率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll of Power II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少量提高队伍伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll of Speed II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少量提高队伍速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll of Prtection II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少量减少受到伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll of Life II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少量提高队伍生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll of Luckness II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少量提高技能触发率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll of Treasure II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少量提高物品掉率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll of Power III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大幅提高队伍伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll of Speed III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大幅提高队伍速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll of Prtection III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大幅减少受到伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll of Life III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大幅提高队伍生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll of Luckness III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大幅提高技能触发率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll of Treasure III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大幅提高物品掉率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll of Wisdom I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻微提高经验获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll of Wisdom II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll of Wisdom III</t>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖券I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖券II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖券III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 保护</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -340,7 +355,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +375,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -388,7 +418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,6 +436,15 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,47 +747,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -764,141 +827,136 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+      <c r="B3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+      <c r="B4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+      <c r="B5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+      <c r="B6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+      <c r="B7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+      <c r="B8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+      <c r="B9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="B10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" s="4"/>
+      <c r="E16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -919,7 +977,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1"/>
     <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
@@ -927,7 +985,7 @@
     <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -938,7 +996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -949,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -960,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -971,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -982,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -993,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1004,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1015,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1040,13 +1098,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1"/>
     <col min="2" max="2" width="26.125" style="1" bestFit="1" customWidth="1"/>
@@ -1055,377 +1113,326 @@
     <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3">
         <v>0.05</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3">
         <v>0.05</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3">
         <v>0.05</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3">
         <v>0.05</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3">
         <v>0.05</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C7" s="3">
         <v>0.05</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3">
         <v>0.1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3">
         <v>0.1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3">
         <v>0.1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3">
         <v>0.1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.1</v>
+        <v>40</v>
+      </c>
+      <c r="C12" s="5">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C13" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3">
         <v>0.15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C17" s="3">
         <v>0.15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C18" s="3">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E18" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3">
         <v>0.15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E19" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="1">
         <v>20</v>
       </c>
     </row>
@@ -1438,4 +1445,324 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>